--- a/data/dealers.xlsx
+++ b/data/dealers.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arun@843$</t>
+          <t>Arun@506$</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Priya@484$</t>
+          <t>Priya@028$</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ramesh@998$</t>
+          <t>Ramesh@541$</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Divya@943$</t>
+          <t>Divya@564$</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Karthik@535$</t>
+          <t>Karthik@097$</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sneha@625$</t>
+          <t>Sneha@010$</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vijay@937$</t>
+          <t>Vijay@519$</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meera@140$</t>
+          <t>Meera@826$</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suresh@697$</t>
+          <t>Suresh@866$</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arun@830$</t>
+          <t>Arun@955$</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rajesh@783$</t>
+          <t>Rajesh@971$</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pooja@355$</t>
+          <t>Pooja@818$</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Senthil@506$</t>
+          <t>Senthil@556$</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lakshmi@358$</t>
+          <t>Lakshmi@896$</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sivakumar@651$</t>
+          <t>Sivakumar@743$</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Revathi@489$</t>
+          <t>Revathi@073$</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gopinath@383$</t>
+          <t>Gopinath@027$</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shanthi@706$</t>
+          <t>Shanthi@935$</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Balaji@859$</t>
+          <t>Balaji@252$</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kavitha@006$</t>
+          <t>Kavitha@576$</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Deepak@306$</t>
+          <t>Deepak@878$</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Anjali@326$</t>
+          <t>Anjali@734$</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Manoj@681$</t>
+          <t>Manoj@869$</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ritu@760$</t>
+          <t>Ritu@692$</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Harish@000$</t>
+          <t>Harish@015$</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Neha@681$</t>
+          <t>Neha@501$</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Prakash@529$</t>
+          <t>Prakash@574$</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Asha@344$</t>
+          <t>Asha@702$</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sanjay@578$</t>
+          <t>Sanjay@952$</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Vidya@286$</t>
+          <t>Vidya@556$</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
